--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rspo1-Lgr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rspo1-Lgr4.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.451301666666667</v>
+        <v>1.952294</v>
       </c>
       <c r="N2">
-        <v>7.353905</v>
+        <v>5.856882</v>
       </c>
       <c r="O2">
-        <v>0.1099648918267336</v>
+        <v>0.07575070565202183</v>
       </c>
       <c r="P2">
-        <v>0.1099648918267337</v>
+        <v>0.07575070565202184</v>
       </c>
       <c r="Q2">
-        <v>0.3865008192861111</v>
+        <v>0.3078214488033333</v>
       </c>
       <c r="R2">
-        <v>3.478507373575</v>
+        <v>2.77039303923</v>
       </c>
       <c r="S2">
-        <v>0.1099648918267336</v>
+        <v>0.07575070565202183</v>
       </c>
       <c r="T2">
-        <v>0.1099648918267337</v>
+        <v>0.07575070565202184</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>43.911918</v>
       </c>
       <c r="O3">
-        <v>0.6566265559283671</v>
+        <v>0.5679402069281436</v>
       </c>
       <c r="P3">
-        <v>0.6566265559283672</v>
+        <v>0.5679402069281437</v>
       </c>
       <c r="Q3">
         <v>2.30788843253</v>
@@ -635,10 +635,10 @@
         <v>20.77099589277</v>
       </c>
       <c r="S3">
-        <v>0.6566265559283671</v>
+        <v>0.5679402069281436</v>
       </c>
       <c r="T3">
-        <v>0.6566265559283672</v>
+        <v>0.5679402069281437</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.177582333333334</v>
+        <v>9.009963000000001</v>
       </c>
       <c r="N4">
-        <v>15.532747</v>
+        <v>27.029889</v>
       </c>
       <c r="O4">
-        <v>0.2322652853996647</v>
+        <v>0.3495944028658632</v>
       </c>
       <c r="P4">
-        <v>0.2322652853996648</v>
+        <v>0.3495944028658634</v>
       </c>
       <c r="Q4">
-        <v>0.8163580358005555</v>
+        <v>1.420615882815</v>
       </c>
       <c r="R4">
-        <v>7.347222322205</v>
+        <v>12.785542945335</v>
       </c>
       <c r="S4">
-        <v>0.2322652853996647</v>
+        <v>0.3495944028658632</v>
       </c>
       <c r="T4">
-        <v>0.2322652853996648</v>
+        <v>0.3495944028658634</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.02548533333333333</v>
+        <v>0.173055</v>
       </c>
       <c r="N5">
-        <v>0.076456</v>
+        <v>0.519165</v>
       </c>
       <c r="O5">
-        <v>0.001143266845234572</v>
+        <v>0.006714684553971194</v>
       </c>
       <c r="P5">
-        <v>0.001143266845234572</v>
+        <v>0.006714684553971196</v>
       </c>
       <c r="Q5">
-        <v>0.004018314982222221</v>
+        <v>0.027285870275</v>
       </c>
       <c r="R5">
-        <v>0.03616483483999999</v>
+        <v>0.245572832475</v>
       </c>
       <c r="S5">
-        <v>0.001143266845234572</v>
+        <v>0.006714684553971194</v>
       </c>
       <c r="T5">
-        <v>0.001143266845234572</v>
+        <v>0.006714684553971196</v>
       </c>
     </row>
   </sheetData>
